--- a/score-service/src/test/resources/homework_test.xlsx
+++ b/score-service/src/test/resources/homework_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="7830"/>
+    <workbookView windowWidth="21870" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>序号</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>性别</t>
+  </si>
+  <si>
+    <t>成绩</t>
   </si>
   <si>
     <t>软件工程</t>
@@ -606,7 +609,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,9 +624,70 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,30 +709,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,43 +723,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -719,24 +730,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,7 +767,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +815,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +893,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,37 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,109 +947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,44 +1096,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,17 +1137,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,10 +1199,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,133 +1211,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1737,18 +1740,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="5" max="5" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1770,8 +1773,11 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1779,22 +1785,25 @@
         <v>2016</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1802,22 +1811,25 @@
         <v>2016</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="H3" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1825,22 +1837,25 @@
         <v>2016</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1848,22 +1863,25 @@
         <v>2016</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H5" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1871,22 +1889,25 @@
         <v>2016</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H6" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1894,22 +1915,25 @@
         <v>2016</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H7" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1917,22 +1941,25 @@
         <v>2016</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1940,22 +1967,25 @@
         <v>2016</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H9" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1963,22 +1993,25 @@
         <v>2016</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H10" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1986,22 +2019,25 @@
         <v>2016</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H11" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2009,22 +2045,25 @@
         <v>2016</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H12" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2032,22 +2071,25 @@
         <v>2016</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H13" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2055,22 +2097,25 @@
         <v>2016</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2078,22 +2123,25 @@
         <v>2016</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H15" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2101,22 +2149,25 @@
         <v>2016</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H16" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2124,22 +2175,25 @@
         <v>2016</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H17" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2147,22 +2201,25 @@
         <v>2016</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H18" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2170,22 +2227,25 @@
         <v>2016</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H19" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2193,22 +2253,25 @@
         <v>2016</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H20" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2216,22 +2279,25 @@
         <v>2016</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H21" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2239,22 +2305,25 @@
         <v>2016</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H22" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2262,22 +2331,25 @@
         <v>2016</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H23" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2285,22 +2357,25 @@
         <v>2016</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H24" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2308,22 +2383,25 @@
         <v>2016</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H25" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2331,22 +2409,25 @@
         <v>2016</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2354,22 +2435,25 @@
         <v>2016</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2377,22 +2461,25 @@
         <v>2016</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H28" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2400,22 +2487,25 @@
         <v>2016</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H29" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2423,22 +2513,25 @@
         <v>2016</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H30" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2446,22 +2539,25 @@
         <v>2016</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H31" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2469,22 +2565,25 @@
         <v>2016</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H32" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2492,22 +2591,25 @@
         <v>2016</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H33" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2515,22 +2617,25 @@
         <v>2016</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H34" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2538,22 +2643,25 @@
         <v>2016</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H35" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2561,22 +2669,25 @@
         <v>2016</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H36" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2584,22 +2695,25 @@
         <v>2016</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H37" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2607,22 +2721,25 @@
         <v>2015</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H38" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2630,22 +2747,25 @@
         <v>2015</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H39" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2653,22 +2773,25 @@
         <v>2015</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H40" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2676,22 +2799,25 @@
         <v>2015</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H41" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2699,22 +2825,25 @@
         <v>2016</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H42" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2722,22 +2851,25 @@
         <v>2016</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H43" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2745,22 +2877,25 @@
         <v>2016</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H44" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2768,22 +2903,25 @@
         <v>2016</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H45" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2791,22 +2929,25 @@
         <v>2016</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H46" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2814,22 +2955,25 @@
         <v>2016</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H47" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2837,22 +2981,25 @@
         <v>2016</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H48" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2860,22 +3007,25 @@
         <v>2016</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H49" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2883,22 +3033,25 @@
         <v>2016</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H50" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2906,22 +3059,25 @@
         <v>2016</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H51" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2929,22 +3085,25 @@
         <v>2016</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H52" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2952,22 +3111,25 @@
         <v>2016</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H53" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -2975,22 +3137,25 @@
         <v>2016</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H54" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -2998,22 +3163,25 @@
         <v>2016</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H55" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -3021,22 +3189,25 @@
         <v>2016</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H56" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -3044,22 +3215,25 @@
         <v>2016</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H57" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -3067,22 +3241,25 @@
         <v>2016</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H58" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3090,22 +3267,25 @@
         <v>2016</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H59" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3113,22 +3293,25 @@
         <v>2016</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H60" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3136,22 +3319,25 @@
         <v>2016</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H61" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3159,22 +3345,25 @@
         <v>2016</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H62" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3182,22 +3371,25 @@
         <v>2016</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H63" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -3205,22 +3397,25 @@
         <v>2016</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H64" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -3228,22 +3423,25 @@
         <v>2016</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H65" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3251,22 +3449,25 @@
         <v>2016</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H66" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -3274,22 +3475,25 @@
         <v>2016</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H67" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -3297,22 +3501,25 @@
         <v>2016</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H68" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -3320,22 +3527,25 @@
         <v>2016</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H69" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -3343,22 +3553,25 @@
         <v>2016</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H70" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -3366,22 +3579,25 @@
         <v>2016</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H71" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -3389,22 +3605,25 @@
         <v>2016</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H72" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -3412,22 +3631,25 @@
         <v>2016</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H73" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -3435,22 +3657,25 @@
         <v>2016</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H74" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -3458,22 +3683,25 @@
         <v>2016</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H75" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -3481,22 +3709,25 @@
         <v>2016</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H76" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -3504,22 +3735,25 @@
         <v>2015</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H77" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -3527,19 +3761,22 @@
         <v>2016</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H78" s="9">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3569,22 +3806,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3597,13 +3834,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3614,10 +3851,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3625,7 +3862,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3633,7 +3870,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3641,7 +3878,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3649,7 +3886,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3657,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3665,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3673,7 +3910,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3681,7 +3918,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/score-service/src/test/resources/homework_test.xlsx
+++ b/score-service/src/test/resources/homework_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21870" windowHeight="5955"/>
+    <workbookView windowWidth="16650" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
   <si>
     <t>序号</t>
   </si>
@@ -40,7 +40,10 @@
     <t>性别</t>
   </si>
   <si>
-    <t>成绩</t>
+    <t>平时成绩</t>
+  </si>
+  <si>
+    <t>验收成绩</t>
   </si>
   <si>
     <t>软件工程</t>
@@ -579,11 +582,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -609,6 +612,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -624,7 +672,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,6 +702,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,23 +718,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,47 +735,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,21 +743,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,7 +770,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,73 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,96 +951,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,28 +1099,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,6 +1141,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1166,15 +1163,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,16 +1181,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,133 +1214,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1740,18 +1743,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+    <row r="1" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1776,8 +1779,11 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1785,25 +1791,28 @@
         <v>2016</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I2" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1811,25 +1820,28 @@
         <v>2016</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="H3" s="9">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I3" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1837,25 +1849,28 @@
         <v>2016</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="9">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I4" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1863,25 +1878,28 @@
         <v>2016</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="9">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I5" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1889,25 +1907,28 @@
         <v>2016</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I6" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1915,25 +1936,28 @@
         <v>2016</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I7" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1941,25 +1965,28 @@
         <v>2016</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I8" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1967,25 +1994,28 @@
         <v>2016</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I9" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1993,25 +2023,28 @@
         <v>2016</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I10" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2019,25 +2052,28 @@
         <v>2016</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I11" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2045,25 +2081,28 @@
         <v>2016</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I12" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2071,25 +2110,28 @@
         <v>2016</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I13" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2097,25 +2139,28 @@
         <v>2016</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I14" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2123,25 +2168,28 @@
         <v>2016</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I15" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2149,25 +2197,28 @@
         <v>2016</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I16" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2175,25 +2226,28 @@
         <v>2016</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I17" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2201,25 +2255,28 @@
         <v>2016</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I18" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2227,25 +2284,28 @@
         <v>2016</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I19" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2253,25 +2313,28 @@
         <v>2016</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I20" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2279,25 +2342,28 @@
         <v>2016</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I21" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2305,25 +2371,28 @@
         <v>2016</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I22" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2331,25 +2400,28 @@
         <v>2016</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I23" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2357,25 +2429,28 @@
         <v>2016</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I24" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2383,25 +2458,28 @@
         <v>2016</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H25" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I25" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2409,25 +2487,28 @@
         <v>2016</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H26" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I26" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2435,25 +2516,28 @@
         <v>2016</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I27" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2461,25 +2545,28 @@
         <v>2016</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I28" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2487,25 +2574,28 @@
         <v>2016</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I29" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2513,25 +2603,28 @@
         <v>2016</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I30" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2539,25 +2632,28 @@
         <v>2016</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H31" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I31" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2565,25 +2661,28 @@
         <v>2016</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H32" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I32" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2591,25 +2690,28 @@
         <v>2016</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H33" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I33" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2617,25 +2719,28 @@
         <v>2016</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I34" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2643,25 +2748,28 @@
         <v>2016</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H35" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I35" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2669,25 +2777,28 @@
         <v>2016</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I36" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2695,25 +2806,28 @@
         <v>2016</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H37" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I37" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2721,25 +2835,28 @@
         <v>2015</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I38" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2747,25 +2864,28 @@
         <v>2015</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H39" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I39" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2773,25 +2893,28 @@
         <v>2015</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H40" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I40" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2799,25 +2922,28 @@
         <v>2015</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H41" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I41" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2825,25 +2951,28 @@
         <v>2016</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I42" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2851,25 +2980,28 @@
         <v>2016</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I43" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2877,25 +3009,28 @@
         <v>2016</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I44" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2903,25 +3038,28 @@
         <v>2016</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I45" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2929,25 +3067,28 @@
         <v>2016</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H46" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I46" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2955,25 +3096,28 @@
         <v>2016</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H47" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I47" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2981,25 +3125,28 @@
         <v>2016</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H48" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I48" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -3007,25 +3154,28 @@
         <v>2016</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H49" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I49" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -3033,25 +3183,28 @@
         <v>2016</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H50" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I50" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -3059,25 +3212,28 @@
         <v>2016</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H51" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I51" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -3085,25 +3241,28 @@
         <v>2016</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H52" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I52" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -3111,25 +3270,28 @@
         <v>2016</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H53" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I53" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -3137,25 +3299,28 @@
         <v>2016</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H54" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I54" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -3163,25 +3328,28 @@
         <v>2016</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H55" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I55" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -3189,25 +3357,28 @@
         <v>2016</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H56" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I56" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -3215,25 +3386,28 @@
         <v>2016</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H57" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I57" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -3241,25 +3415,28 @@
         <v>2016</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H58" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I58" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3267,25 +3444,28 @@
         <v>2016</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H59" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I59" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3293,25 +3473,28 @@
         <v>2016</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H60" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I60" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3319,25 +3502,28 @@
         <v>2016</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H61" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I61" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3345,25 +3531,28 @@
         <v>2016</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H62" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I62" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3371,25 +3560,28 @@
         <v>2016</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H63" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I63" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -3397,25 +3589,28 @@
         <v>2016</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H64" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I64" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -3423,25 +3618,28 @@
         <v>2016</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H65" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I65" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3449,25 +3647,28 @@
         <v>2016</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H66" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I66" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -3475,25 +3676,28 @@
         <v>2016</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H67" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I67" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -3501,25 +3705,28 @@
         <v>2016</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H68" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="69" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I68" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -3527,25 +3734,28 @@
         <v>2016</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H69" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="70" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I69" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -3553,25 +3763,28 @@
         <v>2016</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H70" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="71" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I70" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -3579,25 +3792,28 @@
         <v>2016</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H71" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="72" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I71" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -3605,25 +3821,28 @@
         <v>2016</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H72" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I72" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -3631,25 +3850,28 @@
         <v>2016</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H73" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I73" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -3657,25 +3879,28 @@
         <v>2016</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H74" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="75" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I74" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -3683,25 +3908,28 @@
         <v>2016</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H75" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="76" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I75" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -3709,25 +3937,28 @@
         <v>2016</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H76" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="77" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I76" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -3735,25 +3966,28 @@
         <v>2015</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H77" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="I77" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -3761,21 +3995,24 @@
         <v>2016</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H78" s="9">
+        <v>60</v>
+      </c>
+      <c r="I78" s="9">
         <v>60</v>
       </c>
     </row>
@@ -3806,22 +4043,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3834,13 +4071,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3851,10 +4088,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3862,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3870,7 +4107,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3878,7 +4115,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3886,7 +4123,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3894,7 +4131,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3902,7 +4139,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3910,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3918,7 +4155,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
